--- a/CourseCardSystem/scenario/scenario.xlsx
+++ b/CourseCardSystem/scenario/scenario.xlsx
@@ -82,7 +82,7 @@
     <t>6,10;7,10;2,1</t>
   </si>
   <si>
-    <t>6,2,7,2</t>
+    <t>6,2;7,2</t>
   </si>
   <si>
     <t>4,10;5,5</t>

--- a/CourseCardSystem/scenario/scenario.xlsx
+++ b/CourseCardSystem/scenario/scenario.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>宝箱id</t>
   </si>
@@ -49,16 +49,16 @@
     <t>宝箱橙卡up</t>
   </si>
   <si>
-    <t>8,1;3,6;4,2</t>
-  </si>
-  <si>
-    <t>4,4;5,1;3,10</t>
-  </si>
-  <si>
-    <t>3,16;6,15</t>
-  </si>
-  <si>
-    <t>4,10;5,10;1,1</t>
+    <t>8,6;3,6;7,2</t>
+  </si>
+  <si>
+    <t>7,4;6,1;3,10</t>
+  </si>
+  <si>
+    <t>4,16</t>
+  </si>
+  <si>
+    <t>4,16;5,16;1,1</t>
   </si>
   <si>
     <t>免费宝箱</t>
@@ -73,37 +73,31 @@
     <t>宝箱3</t>
   </si>
   <si>
+    <t>6,5;8,10</t>
+  </si>
+  <si>
+    <t>5,16</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>橙卡（添加额外张数）</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>紫卡</t>
+  </si>
+  <si>
     <t>5,5</t>
   </si>
   <si>
-    <t>6,1;7,9</t>
-  </si>
-  <si>
-    <t>6,10;7,10;2,1</t>
-  </si>
-  <si>
-    <t>6,2;7,2</t>
-  </si>
-  <si>
-    <t>4,10;5,5</t>
-  </si>
-  <si>
-    <t>5,5;6,5</t>
-  </si>
-  <si>
-    <t>橙卡（添加额外张数）</t>
-  </si>
-  <si>
-    <t>紫卡</t>
-  </si>
-  <si>
-    <t>6,5</t>
-  </si>
-  <si>
     <t>传说卡</t>
   </si>
   <si>
-    <t>7,5</t>
+    <t>5,1</t>
   </si>
   <si>
     <t>总卡数</t>
@@ -645,9 +639,6 @@
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -659,10 +650,7 @@
         <v>3.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -675,13 +663,10 @@
         <v>4.0</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="I9" s="9">
         <v>12.0</v>
@@ -699,10 +684,10 @@
         <v>5.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9">
         <v>2.0</v>
@@ -722,10 +707,10 @@
         <v>6.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9">
         <v>0.0</v>
@@ -745,7 +730,7 @@
         <v>7.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -761,7 +746,7 @@
         <v>28</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9">
         <v>14.0</v>
@@ -780,30 +765,27 @@
       <c r="A14" s="1">
         <v>9.0</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="17">
       <c r="H17" s="3"/>
       <c r="I17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18">
       <c r="H18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19">
